--- a/result1_1.xlsx
+++ b/result1_1.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>keep</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -455,10 +455,10 @@
         <v>30200</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>30201</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>31010</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>31011</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>31012</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>166</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>83</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>226</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>87</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>188</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -898,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -920,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>56</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -931,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -953,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -964,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -997,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -1008,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -1019,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -1030,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -1052,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -1074,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -1085,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -1096,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -1107,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -1140,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -1184,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -1206,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -1228,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -1261,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -1283,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -1294,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -1305,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
@@ -1316,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -1327,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
@@ -1338,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -1360,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
@@ -1404,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -1481,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
@@ -1503,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -1514,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99">
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -1547,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
@@ -1555,10 +1555,10 @@
         <v>31100</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103">
@@ -1566,10 +1566,10 @@
         <v>31101</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104">
@@ -1577,10 +1577,10 @@
         <v>31102</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105">
@@ -1588,10 +1588,10 @@
         <v>31104</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106">
@@ -1599,10 +1599,10 @@
         <v>31105</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107">
@@ -1610,10 +1610,10 @@
         <v>31106</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
@@ -1621,10 +1621,10 @@
         <v>31107</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109">
@@ -1632,10 +1632,10 @@
         <v>31108</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110">
@@ -1643,10 +1643,10 @@
         <v>31109</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111">
@@ -1654,10 +1654,10 @@
         <v>31110</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112">
@@ -1665,10 +1665,10 @@
         <v>31111</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113">
@@ -1676,10 +1676,10 @@
         <v>31112</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114">
@@ -1687,10 +1687,10 @@
         <v>31113</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115">
@@ -1698,10 +1698,10 @@
         <v>31114</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>266</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117">
@@ -1720,10 +1720,10 @@
         <v>31116</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
@@ -1731,10 +1731,10 @@
         <v>31117</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +1742,10 @@
         <v>31118</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120">
@@ -1753,10 +1753,10 @@
         <v>31119</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121">
@@ -1764,10 +1764,10 @@
         <v>31120</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122">
@@ -1775,10 +1775,10 @@
         <v>31121</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123">
@@ -1786,10 +1786,10 @@
         <v>31122</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>86</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124">
@@ -1800,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125">
@@ -1811,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>80</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126">
@@ -1822,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127">
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128">
@@ -1844,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129">
@@ -1855,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>144</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130">
@@ -1866,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>108</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131">
@@ -1877,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>72</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132">
@@ -1888,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>277</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133">
@@ -1899,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>132</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135">
@@ -1921,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>126</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136">
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>181</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137">
@@ -1943,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>167</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138">
@@ -1954,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>102</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139">
@@ -1965,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140">
@@ -1976,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142">
@@ -1998,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="143">
@@ -2009,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="144">
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145">
@@ -2031,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>127</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146">
@@ -2042,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147">
@@ -2053,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>120</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148">
@@ -2064,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149">
@@ -2075,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151">
@@ -2097,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>210</v>
+        <v>34</v>
       </c>
     </row>
     <row r="152">
@@ -2108,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="153">
@@ -2119,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154">
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155">
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>122</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156">
@@ -2152,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="157">
@@ -2163,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>226</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158">
@@ -2174,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>207</v>
+        <v>27</v>
       </c>
     </row>
     <row r="159">
@@ -2185,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>131</v>
+        <v>27</v>
       </c>
     </row>
     <row r="160">
@@ -2196,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161">
@@ -2207,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="162">
@@ -2218,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163">
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>113</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164">
@@ -2240,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>168</v>
+        <v>22</v>
       </c>
     </row>
     <row r="165">
@@ -2251,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>86</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166">
@@ -2262,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167">
@@ -2273,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>275</v>
+        <v>39</v>
       </c>
     </row>
     <row r="168">
@@ -2284,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169">
@@ -2295,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>155</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170">
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>298</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171">
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>217</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172">
@@ -2325,10 +2325,10 @@
         <v>31230</v>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>300</v>
+        <v>26</v>
       </c>
     </row>
     <row r="173">
@@ -2339,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>134</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174">
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>156</v>
+        <v>21</v>
       </c>
     </row>
     <row r="175">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>155</v>
+        <v>25</v>
       </c>
     </row>
     <row r="176">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="177">
@@ -2383,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="178">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="179">
@@ -2405,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180">
@@ -2416,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>133</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181">
@@ -2427,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182">
@@ -2438,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="183">
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>173</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184">
@@ -2460,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185">
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>132</v>
+        <v>44</v>
       </c>
     </row>
     <row r="186">
@@ -2482,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187">
@@ -2493,7 +2493,7 @@
         <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188">
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>240</v>
+        <v>25</v>
       </c>
     </row>
     <row r="189">
@@ -2512,10 +2512,10 @@
         <v>31247</v>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="190">
@@ -2526,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>117</v>
+        <v>43</v>
       </c>
     </row>
     <row r="191">
@@ -2537,7 +2537,7 @@
         <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="192">
@@ -2548,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193">
@@ -2559,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194">
@@ -2570,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195">
@@ -2581,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>112</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196">
@@ -2592,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>94</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197">
@@ -2603,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198">
@@ -2614,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199">
@@ -2625,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200">
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>88</v>
+        <v>39</v>
       </c>
     </row>
     <row r="201">
@@ -2647,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202">
@@ -2658,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="203">
@@ -2669,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204">
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="C204" t="n">
-        <v>187</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205">
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207">
@@ -2713,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208">
@@ -2724,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="C208" t="n">
-        <v>84</v>
+        <v>17</v>
       </c>
     </row>
     <row r="209">
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="C209" t="n">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210">
@@ -2746,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>267</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211">
@@ -2757,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212">
@@ -2768,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>123</v>
+        <v>20</v>
       </c>
     </row>
     <row r="213">
@@ -2779,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="214">
@@ -2790,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="215">
@@ -2801,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="216">
@@ -2812,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>247</v>
+        <v>21</v>
       </c>
     </row>
     <row r="217">
@@ -2823,7 +2823,7 @@
         <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218">
@@ -2834,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>137</v>
+        <v>18</v>
       </c>
     </row>
     <row r="219">
@@ -2845,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="C219" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="220">
@@ -2856,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="221">
@@ -2867,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="222">
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>122</v>
+        <v>17</v>
       </c>
     </row>
     <row r="223">
@@ -2889,7 +2889,7 @@
         <v>1</v>
       </c>
       <c r="C223" t="n">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="224">
@@ -2900,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225">
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="226">
@@ -2922,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="C226" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227">
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="C227" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="228">
@@ -2944,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="C228" t="n">
-        <v>194</v>
+        <v>21</v>
       </c>
     </row>
     <row r="229">
@@ -2955,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="C229" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="230">
@@ -2966,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="231">
@@ -2977,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="232">
@@ -2988,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="233">
@@ -2999,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="234">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="235">
@@ -3021,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>245</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236">
@@ -3032,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237">
@@ -3043,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="C237" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="238">
@@ -3054,7 +3054,7 @@
         <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>134</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239">
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="C239" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="240">
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241">
@@ -3087,7 +3087,7 @@
         <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="242">
@@ -3098,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="C243" t="n">
-        <v>125</v>
+        <v>9</v>
       </c>
     </row>
     <row r="244">
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="C244" t="n">
-        <v>77</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245">
@@ -3131,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>124</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246">
@@ -3142,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="C246" t="n">
-        <v>80</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247">
@@ -3153,7 +3153,7 @@
         <v>1</v>
       </c>
       <c r="C247" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248">
@@ -3164,7 +3164,7 @@
         <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249">
@@ -3175,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="C249" t="n">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250">
@@ -3186,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="C250" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251">
@@ -3197,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="C251" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252">
@@ -3208,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="C252" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253">
@@ -3219,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="C253" t="n">
-        <v>197</v>
+        <v>24</v>
       </c>
     </row>
     <row r="254">
@@ -3230,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="C254" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="255">
@@ -3241,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="C255" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256">
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="C256" t="n">
-        <v>208</v>
+        <v>26</v>
       </c>
     </row>
     <row r="257">
@@ -3263,7 +3263,7 @@
         <v>1</v>
       </c>
       <c r="C257" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258">
@@ -3274,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259">
@@ -3285,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="C259" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260">
@@ -3296,7 +3296,7 @@
         <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261">
@@ -3307,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>138</v>
+        <v>8</v>
       </c>
     </row>
     <row r="263">
@@ -3329,7 +3329,7 @@
         <v>1</v>
       </c>
       <c r="C263" t="n">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="264">
@@ -3340,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265">
@@ -3351,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="C265" t="n">
-        <v>206</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266">
@@ -3362,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="C266" t="n">
-        <v>77</v>
+        <v>17</v>
       </c>
     </row>
     <row r="267">
@@ -3373,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="C267" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268">
@@ -3384,7 +3384,7 @@
         <v>1</v>
       </c>
       <c r="C268" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269">
@@ -3395,7 +3395,7 @@
         <v>1</v>
       </c>
       <c r="C269" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="270">
@@ -3406,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="C270" t="n">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="271">
@@ -3417,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="C271" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -3428,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="C272" t="n">
-        <v>83</v>
+        <v>24</v>
       </c>
     </row>
     <row r="273">
@@ -3439,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="C273" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274">
@@ -3450,7 +3450,7 @@
         <v>1</v>
       </c>
       <c r="C274" t="n">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275">
@@ -3461,7 +3461,7 @@
         <v>1</v>
       </c>
       <c r="C275" t="n">
-        <v>81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276">
@@ -3472,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="C276" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="C277" t="n">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278">
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="C278" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="279">
@@ -3505,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="C279" t="n">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="280">
@@ -3516,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="C280" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281">
@@ -3527,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="C281" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282">
@@ -3538,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="C282" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283">
@@ -3549,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="C283" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284">
@@ -3560,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="C284" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -3571,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="C285" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="286">
@@ -3582,7 +3582,7 @@
         <v>1</v>
       </c>
       <c r="C286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287">
@@ -3593,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="C287" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288">
@@ -3615,7 +3615,7 @@
         <v>1</v>
       </c>
       <c r="C289" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="C290" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291">
@@ -3637,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="C291" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="292">
@@ -3648,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="293">
@@ -3659,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="C293" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294">
@@ -3670,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="C294" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="295">
@@ -3681,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="C295" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296">
@@ -3692,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297">
@@ -3703,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="C297" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="298">
@@ -3714,7 +3714,7 @@
         <v>1</v>
       </c>
       <c r="C298" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299">
@@ -3725,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="C299" t="n">
-        <v>62</v>
+        <v>9</v>
       </c>
     </row>
     <row r="300">
@@ -3736,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="C300" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="301">
@@ -3747,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="C301" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="302">
@@ -3758,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="C302" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="303">
@@ -3769,7 +3769,7 @@
         <v>1</v>
       </c>
       <c r="C303" t="n">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304">
@@ -3780,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="C304" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305">
@@ -3791,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="C305" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="306">
@@ -3802,7 +3802,7 @@
         <v>1</v>
       </c>
       <c r="C306" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="307">
@@ -3813,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="C307" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308">
@@ -3824,7 +3824,7 @@
         <v>1</v>
       </c>
       <c r="C308" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="309">
@@ -3835,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="C309" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="310">
@@ -3846,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="C310" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="311">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312">
@@ -3868,7 +3868,7 @@
         <v>1</v>
       </c>
       <c r="C312" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313">
@@ -3879,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="C313" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -3890,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315">
@@ -3901,7 +3901,7 @@
         <v>1</v>
       </c>
       <c r="C315" t="n">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="316">
@@ -3912,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="C316" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="317">
@@ -3923,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="318">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="C318" t="n">
-        <v>131</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319">
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="C319" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320">
@@ -3956,7 +3956,7 @@
         <v>1</v>
       </c>
       <c r="C320" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321">
@@ -3967,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="C321" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322">
@@ -3978,7 +3978,7 @@
         <v>1</v>
       </c>
       <c r="C322" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="323">
@@ -3989,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="C323" t="n">
-        <v>136</v>
+        <v>8</v>
       </c>
     </row>
     <row r="324">
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="C324" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -4011,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="C325" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326">
@@ -4022,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="327">
@@ -4033,7 +4033,7 @@
         <v>1</v>
       </c>
       <c r="C327" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="328">
@@ -4044,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="329">
@@ -4055,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="C329" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="330">
@@ -4066,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="C330" t="n">
-        <v>122</v>
+        <v>17</v>
       </c>
     </row>
     <row r="331">
@@ -4077,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="C331" t="n">
-        <v>74</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332">
@@ -4088,7 +4088,7 @@
         <v>1</v>
       </c>
       <c r="C332" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="333">
@@ -4099,7 +4099,7 @@
         <v>1</v>
       </c>
       <c r="C333" t="n">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="334">
@@ -4110,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="C334" t="n">
-        <v>129</v>
+        <v>8</v>
       </c>
     </row>
     <row r="335">
@@ -4121,7 +4121,7 @@
         <v>1</v>
       </c>
       <c r="C335" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="336">
@@ -4132,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="C336" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337">
@@ -4143,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="338">
@@ -4154,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="339">
@@ -4165,7 +4165,7 @@
         <v>1</v>
       </c>
       <c r="C339" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340">
@@ -4176,7 +4176,7 @@
         <v>1</v>
       </c>
       <c r="C340" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="341">
@@ -4187,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="C341" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342">
@@ -4198,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="C342" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="343">
@@ -4209,7 +4209,7 @@
         <v>1</v>
       </c>
       <c r="C343" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="344">
@@ -4220,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="C344" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="345">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="C345" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="C346" t="n">
-        <v>82</v>
+        <v>11</v>
       </c>
     </row>
     <row r="347">
@@ -4253,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="C347" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="348">
@@ -4264,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="C348" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="349">
@@ -4275,7 +4275,7 @@
         <v>1</v>
       </c>
       <c r="C349" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="350">
@@ -4286,7 +4286,7 @@
         <v>1</v>
       </c>
       <c r="C350" t="n">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="351">
@@ -4297,7 +4297,7 @@
         <v>1</v>
       </c>
       <c r="C351" t="n">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="352">
@@ -4308,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="C352" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="353">
@@ -4319,7 +4319,7 @@
         <v>1</v>
       </c>
       <c r="C353" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354">
@@ -4330,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="C354" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="355">
@@ -4341,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="C355" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="356">
@@ -4352,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="C356" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="357">
@@ -4363,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="C357" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358">
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="C358" t="n">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="359">
@@ -4385,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="C359" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="360">
@@ -4396,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="C360" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="361">
@@ -4407,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="C361" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="362">
@@ -4418,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="C362" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="363">
@@ -4429,7 +4429,7 @@
         <v>1</v>
       </c>
       <c r="C363" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="364">
@@ -4440,7 +4440,7 @@
         <v>1</v>
       </c>
       <c r="C364" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365">
@@ -4451,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366">
@@ -4462,7 +4462,7 @@
         <v>1</v>
       </c>
       <c r="C366" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367">
@@ -4473,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="C367" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="368">
@@ -4484,7 +4484,7 @@
         <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="369">
@@ -4495,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="C369" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="370">
@@ -4506,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="C370" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371">
@@ -4517,7 +4517,7 @@
         <v>1</v>
       </c>
       <c r="C371" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372">
@@ -4528,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="C372" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373">
@@ -4539,7 +4539,7 @@
         <v>1</v>
       </c>
       <c r="C373" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="C374" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="375">
@@ -4561,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="C375" t="n">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="376">
@@ -4569,10 +4569,10 @@
         <v>31602</v>
       </c>
       <c r="B376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C376" t="n">
-        <v>300</v>
+        <v>16</v>
       </c>
     </row>
     <row r="377">
@@ -4583,7 +4583,7 @@
         <v>1</v>
       </c>
       <c r="C377" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="378">
@@ -4594,7 +4594,7 @@
         <v>1</v>
       </c>
       <c r="C378" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="379">
@@ -4605,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="C379" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="380">
@@ -4616,7 +4616,7 @@
         <v>1</v>
       </c>
       <c r="C380" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="381">
@@ -4627,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="C381" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="382">
@@ -4638,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="C382" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="383">
@@ -4649,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="C383" t="n">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="384">
@@ -4660,7 +4660,7 @@
         <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="385">
@@ -4671,7 +4671,7 @@
         <v>1</v>
       </c>
       <c r="C385" t="n">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="386">
@@ -4682,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="C386" t="n">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="387">
@@ -4693,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="C387" t="n">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="388">
@@ -4704,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="C388" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="389">
@@ -4715,7 +4715,7 @@
         <v>1</v>
       </c>
       <c r="C389" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="390">
@@ -4726,7 +4726,7 @@
         <v>1</v>
       </c>
       <c r="C390" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="391">
@@ -4737,7 +4737,7 @@
         <v>1</v>
       </c>
       <c r="C391" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="392">
@@ -4748,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="C392" t="n">
-        <v>152</v>
+        <v>14</v>
       </c>
     </row>
     <row r="393">
@@ -4759,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="C393" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="394">
@@ -4770,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="C394" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="395">
@@ -4781,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="C395" t="n">
-        <v>136</v>
+        <v>44</v>
       </c>
     </row>
     <row r="396">
@@ -4792,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="C396" t="n">
-        <v>92</v>
+        <v>19</v>
       </c>
     </row>
     <row r="397">
@@ -4803,7 +4803,7 @@
         <v>1</v>
       </c>
       <c r="C397" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="398">
@@ -4814,7 +4814,7 @@
         <v>1</v>
       </c>
       <c r="C398" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="399">
@@ -4825,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="C399" t="n">
-        <v>120</v>
+        <v>23</v>
       </c>
     </row>
     <row r="400">
@@ -4836,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="C400" t="n">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="401">
@@ -4847,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="C401" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="402">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="C402" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="403">
@@ -4869,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="C403" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="404">
@@ -4880,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="C404" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="405">
@@ -4891,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="C405" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="406">
@@ -4902,7 +4902,7 @@
         <v>1</v>
       </c>
       <c r="C406" t="n">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="407">
@@ -4913,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="C407" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="408">
@@ -4924,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="C408" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="409">
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="C409" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="410">
@@ -4946,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="C410" t="n">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="411">
@@ -4957,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="C411" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="412">
@@ -4968,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="C412" t="n">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="413">
@@ -4979,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="C413" t="n">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="414">
@@ -4990,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="C414" t="n">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="415">
@@ -5001,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="C415" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="416">
@@ -5012,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="C416" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="417">
@@ -5023,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="C417" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="418">
@@ -5034,7 +5034,7 @@
         <v>1</v>
       </c>
       <c r="C418" t="n">
-        <v>167</v>
+        <v>33</v>
       </c>
     </row>
     <row r="419">
@@ -5045,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="C419" t="n">
-        <v>176</v>
+        <v>12</v>
       </c>
     </row>
     <row r="420">
@@ -5056,7 +5056,7 @@
         <v>1</v>
       </c>
       <c r="C420" t="n">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="421">
@@ -5067,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="C421" t="n">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="422">
@@ -5078,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="C422" t="n">
-        <v>173</v>
+        <v>31</v>
       </c>
     </row>
     <row r="423">
@@ -5089,7 +5089,7 @@
         <v>1</v>
       </c>
       <c r="C423" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="424">
@@ -5100,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="C424" t="n">
-        <v>107</v>
+        <v>17</v>
       </c>
     </row>
     <row r="425">
@@ -5111,7 +5111,7 @@
         <v>1</v>
       </c>
       <c r="C425" t="n">
-        <v>112</v>
+        <v>19</v>
       </c>
     </row>
     <row r="426">
@@ -5122,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="C426" t="n">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="427">
@@ -5133,7 +5133,7 @@
         <v>1</v>
       </c>
       <c r="C427" t="n">
-        <v>157</v>
+        <v>21</v>
       </c>
     </row>
     <row r="428">
@@ -5144,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="C428" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="429">
@@ -5155,7 +5155,7 @@
         <v>1</v>
       </c>
       <c r="C429" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="430">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="C430" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="431">
@@ -5177,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="C431" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="432">
@@ -5188,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="C432" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="433">
@@ -5199,7 +5199,7 @@
         <v>1</v>
       </c>
       <c r="C433" t="n">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="434">
@@ -5210,7 +5210,7 @@
         <v>1</v>
       </c>
       <c r="C434" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="435">
@@ -5221,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="C435" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="436">
@@ -5232,7 +5232,7 @@
         <v>1</v>
       </c>
       <c r="C436" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="437">
@@ -5243,7 +5243,7 @@
         <v>1</v>
       </c>
       <c r="C437" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="438">
@@ -5254,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="C438" t="n">
-        <v>122</v>
+        <v>18</v>
       </c>
     </row>
     <row r="439">
@@ -5265,7 +5265,7 @@
         <v>1</v>
       </c>
       <c r="C439" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="440">
@@ -5276,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="C440" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="441">
@@ -5287,7 +5287,7 @@
         <v>1</v>
       </c>
       <c r="C441" t="n">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="442">
@@ -5298,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="C442" t="n">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="443">
@@ -5309,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="C443" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -5320,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="C444" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="445">
@@ -5331,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="C445" t="n">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="446">
@@ -5342,7 +5342,7 @@
         <v>1</v>
       </c>
       <c r="C446" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="447">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="C447" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="448">
@@ -5364,7 +5364,7 @@
         <v>1</v>
       </c>
       <c r="C448" t="n">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="449">
@@ -5375,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="C449" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="450">
@@ -5386,7 +5386,7 @@
         <v>1</v>
       </c>
       <c r="C450" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="451">
@@ -5397,7 +5397,7 @@
         <v>1</v>
       </c>
       <c r="C451" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="452">
@@ -5408,7 +5408,7 @@
         <v>1</v>
       </c>
       <c r="C452" t="n">
-        <v>113</v>
+        <v>37</v>
       </c>
     </row>
     <row r="453">
@@ -5419,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="C453" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454">
@@ -5430,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="C454" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="455">
@@ -5441,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="C455" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456">
@@ -5452,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="C456" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="457">
@@ -5463,7 +5463,7 @@
         <v>1</v>
       </c>
       <c r="C457" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="C458" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="459">
@@ -5485,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="C459" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460">
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="C460" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461">
@@ -5507,7 +5507,7 @@
         <v>1</v>
       </c>
       <c r="C461" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="462">
@@ -5518,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="C462" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463">
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="C463" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464">
@@ -5540,7 +5540,7 @@
         <v>1</v>
       </c>
       <c r="C464" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="465">
@@ -5551,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="C465" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466">
@@ -5562,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="C466" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="467">
@@ -5573,7 +5573,7 @@
         <v>1</v>
       </c>
       <c r="C467" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="468">
@@ -5584,7 +5584,7 @@
         <v>1</v>
       </c>
       <c r="C468" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="469">
@@ -5595,7 +5595,7 @@
         <v>1</v>
       </c>
       <c r="C469" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="470">
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="C470" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="471">
@@ -5617,7 +5617,7 @@
         <v>1</v>
       </c>
       <c r="C471" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="472">
@@ -5628,7 +5628,7 @@
         <v>1</v>
       </c>
       <c r="C472" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="473">
@@ -5639,7 +5639,7 @@
         <v>1</v>
       </c>
       <c r="C473" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="474">
@@ -5650,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="C474" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475">
@@ -5683,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="C477" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="478">
@@ -5694,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="C478" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479">
@@ -5705,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="C479" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="480">
@@ -5716,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="C480" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481">
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="C481" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
@@ -5738,7 +5738,7 @@
         <v>1</v>
       </c>
       <c r="C482" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="483">
@@ -5749,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="C483" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="484">
@@ -5760,7 +5760,7 @@
         <v>1</v>
       </c>
       <c r="C484" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="485">
@@ -5771,7 +5771,7 @@
         <v>1</v>
       </c>
       <c r="C485" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="486">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="C486" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="487">
@@ -5793,7 +5793,7 @@
         <v>1</v>
       </c>
       <c r="C487" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="488">
@@ -5804,7 +5804,7 @@
         <v>1</v>
       </c>
       <c r="C488" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489">
@@ -5815,7 +5815,7 @@
         <v>1</v>
       </c>
       <c r="C489" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490">
@@ -5826,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="C490" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491">
@@ -5837,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="C491" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="492">
@@ -5848,7 +5848,7 @@
         <v>1</v>
       </c>
       <c r="C492" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="493">
@@ -5870,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="C494" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495">
@@ -5881,7 +5881,7 @@
         <v>1</v>
       </c>
       <c r="C495" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496">
@@ -5892,7 +5892,7 @@
         <v>1</v>
       </c>
       <c r="C496" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="497">
@@ -5903,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="C497" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
@@ -5914,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="C498" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
@@ -5925,7 +5925,7 @@
         <v>1</v>
       </c>
       <c r="C499" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="500">
@@ -5936,7 +5936,7 @@
         <v>1</v>
       </c>
       <c r="C500" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
@@ -5947,7 +5947,7 @@
         <v>1</v>
       </c>
       <c r="C501" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
@@ -5958,7 +5958,7 @@
         <v>1</v>
       </c>
       <c r="C502" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="503">
@@ -5969,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="C503" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
@@ -5980,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="C504" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505">
@@ -5991,7 +5991,7 @@
         <v>1</v>
       </c>
       <c r="C505" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="506">
@@ -6002,7 +6002,7 @@
         <v>1</v>
       </c>
       <c r="C506" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="507">
@@ -6013,7 +6013,7 @@
         <v>1</v>
       </c>
       <c r="C507" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508">
@@ -6024,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="C508" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
@@ -6035,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510">
@@ -6046,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="C510" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="511">
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="C511" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="512">
@@ -6068,7 +6068,7 @@
         <v>1</v>
       </c>
       <c r="C512" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="513">
@@ -6079,7 +6079,7 @@
         <v>1</v>
       </c>
       <c r="C513" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="C514" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="515">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="C515" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516">
@@ -6112,7 +6112,7 @@
         <v>1</v>
       </c>
       <c r="C516" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517">
@@ -6123,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="C517" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="518">
@@ -6134,7 +6134,7 @@
         <v>1</v>
       </c>
       <c r="C518" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="519">
@@ -6145,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="C519" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="520">
@@ -6156,7 +6156,7 @@
         <v>1</v>
       </c>
       <c r="C520" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="521">
@@ -6167,7 +6167,7 @@
         <v>1</v>
       </c>
       <c r="C521" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522">
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="C522" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="523">
@@ -6189,7 +6189,7 @@
         <v>1</v>
       </c>
       <c r="C523" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524">
@@ -6200,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="C524" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="525">
@@ -6211,7 +6211,7 @@
         <v>1</v>
       </c>
       <c r="C525" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="526">
@@ -6222,7 +6222,7 @@
         <v>1</v>
       </c>
       <c r="C526" t="n">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="527">
@@ -6233,7 +6233,7 @@
         <v>1</v>
       </c>
       <c r="C527" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="528">
@@ -6244,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="C528" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="529">
@@ -6255,7 +6255,7 @@
         <v>1</v>
       </c>
       <c r="C529" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="530">
@@ -6266,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531">
@@ -6277,7 +6277,7 @@
         <v>1</v>
       </c>
       <c r="C531" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="532">
@@ -6288,7 +6288,7 @@
         <v>1</v>
       </c>
       <c r="C532" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="533">
@@ -6299,7 +6299,7 @@
         <v>1</v>
       </c>
       <c r="C533" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="534">
@@ -6310,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="C534" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="535">
@@ -6321,7 +6321,7 @@
         <v>1</v>
       </c>
       <c r="C535" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536">
@@ -6332,7 +6332,7 @@
         <v>1</v>
       </c>
       <c r="C536" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="537">
@@ -6343,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="C537" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="538">
@@ -6354,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="C538" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="539">
@@ -6365,7 +6365,7 @@
         <v>1</v>
       </c>
       <c r="C539" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540">
@@ -6376,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="C540" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="541">
@@ -6387,7 +6387,7 @@
         <v>1</v>
       </c>
       <c r="C541" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="542">
@@ -6398,7 +6398,7 @@
         <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="543">
@@ -6409,7 +6409,7 @@
         <v>1</v>
       </c>
       <c r="C543" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="544">
@@ -6420,7 +6420,7 @@
         <v>1</v>
       </c>
       <c r="C544" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="545">
@@ -6431,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="C545" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="546">
@@ -6442,7 +6442,7 @@
         <v>1</v>
       </c>
       <c r="C546" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="547">
@@ -6453,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="C547" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548">
@@ -6464,7 +6464,7 @@
         <v>1</v>
       </c>
       <c r="C548" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="C549" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550">
@@ -6486,7 +6486,7 @@
         <v>1</v>
       </c>
       <c r="C550" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551">
@@ -6497,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="C551" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552">
@@ -6508,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="C552" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553">
@@ -6519,7 +6519,7 @@
         <v>1</v>
       </c>
       <c r="C553" t="n">
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="554">
@@ -6530,7 +6530,7 @@
         <v>1</v>
       </c>
       <c r="C554" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="555">
@@ -6541,7 +6541,7 @@
         <v>1</v>
       </c>
       <c r="C555" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="556">
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="C556" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="557">
@@ -6563,7 +6563,7 @@
         <v>1</v>
       </c>
       <c r="C557" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="558">
@@ -6574,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="C558" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559">
@@ -6585,7 +6585,7 @@
         <v>1</v>
       </c>
       <c r="C559" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560">
@@ -6596,7 +6596,7 @@
         <v>1</v>
       </c>
       <c r="C560" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561">
@@ -6607,7 +6607,7 @@
         <v>1</v>
       </c>
       <c r="C561" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="562">
@@ -6618,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="C562" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="563">
@@ -6629,7 +6629,7 @@
         <v>1</v>
       </c>
       <c r="C563" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564">
@@ -6640,7 +6640,7 @@
         <v>1</v>
       </c>
       <c r="C564" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="565">
@@ -6651,7 +6651,7 @@
         <v>1</v>
       </c>
       <c r="C565" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="566">
@@ -6662,7 +6662,7 @@
         <v>1</v>
       </c>
       <c r="C566" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="567">
@@ -6673,7 +6673,7 @@
         <v>1</v>
       </c>
       <c r="C567" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="568">
@@ -6684,7 +6684,7 @@
         <v>1</v>
       </c>
       <c r="C568" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569">
@@ -6695,7 +6695,7 @@
         <v>1</v>
       </c>
       <c r="C569" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="570">
@@ -6706,7 +6706,7 @@
         <v>1</v>
       </c>
       <c r="C570" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571">
@@ -6717,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="C571" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572">
@@ -6728,7 +6728,7 @@
         <v>1</v>
       </c>
       <c r="C572" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573">
@@ -6739,7 +6739,7 @@
         <v>1</v>
       </c>
       <c r="C573" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="574">
@@ -6750,7 +6750,7 @@
         <v>1</v>
       </c>
       <c r="C574" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="575">
@@ -6761,7 +6761,7 @@
         <v>1</v>
       </c>
       <c r="C575" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="576">
@@ -6772,7 +6772,7 @@
         <v>1</v>
       </c>
       <c r="C576" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="577">
@@ -6783,7 +6783,7 @@
         <v>1</v>
       </c>
       <c r="C577" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="578">
@@ -6794,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="C578" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="579">
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="C579" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="580">
@@ -6816,7 +6816,7 @@
         <v>1</v>
       </c>
       <c r="C580" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581">
@@ -6827,7 +6827,7 @@
         <v>1</v>
       </c>
       <c r="C581" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="582">
@@ -6838,7 +6838,7 @@
         <v>1</v>
       </c>
       <c r="C582" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="583">
@@ -6849,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="C583" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="584">
@@ -6860,7 +6860,7 @@
         <v>1</v>
       </c>
       <c r="C584" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="585">
@@ -6871,7 +6871,7 @@
         <v>1</v>
       </c>
       <c r="C585" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="586">
@@ -6882,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="C586" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="587">
@@ -6893,7 +6893,7 @@
         <v>1</v>
       </c>
       <c r="C587" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="588">
@@ -6904,7 +6904,7 @@
         <v>1</v>
       </c>
       <c r="C588" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="589">
@@ -6926,7 +6926,7 @@
         <v>1</v>
       </c>
       <c r="C590" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="591">
@@ -6937,7 +6937,7 @@
         <v>1</v>
       </c>
       <c r="C591" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="592">
@@ -6948,7 +6948,7 @@
         <v>1</v>
       </c>
       <c r="C592" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593">
@@ -6959,7 +6959,7 @@
         <v>1</v>
       </c>
       <c r="C593" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594">
@@ -6970,7 +6970,7 @@
         <v>1</v>
       </c>
       <c r="C594" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="595">
@@ -6981,7 +6981,7 @@
         <v>1</v>
       </c>
       <c r="C595" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="596">
@@ -6992,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="C596" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="597">
@@ -7003,7 +7003,7 @@
         <v>1</v>
       </c>
       <c r="C597" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598">
@@ -7014,7 +7014,7 @@
         <v>1</v>
       </c>
       <c r="C598" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="599">
@@ -7025,7 +7025,7 @@
         <v>1</v>
       </c>
       <c r="C599" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="600">
@@ -7036,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="C600" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="601">
@@ -7047,7 +7047,7 @@
         <v>1</v>
       </c>
       <c r="C601" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="602">
@@ -7058,7 +7058,7 @@
         <v>1</v>
       </c>
       <c r="C602" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="603">
@@ -7069,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="C603" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="604">
@@ -7080,7 +7080,7 @@
         <v>1</v>
       </c>
       <c r="C604" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="605">
@@ -7091,7 +7091,7 @@
         <v>1</v>
       </c>
       <c r="C605" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="606">
@@ -7102,7 +7102,7 @@
         <v>1</v>
       </c>
       <c r="C606" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="607">
@@ -7113,7 +7113,7 @@
         <v>1</v>
       </c>
       <c r="C607" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="608">
@@ -7124,7 +7124,7 @@
         <v>1</v>
       </c>
       <c r="C608" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609">
@@ -7135,7 +7135,7 @@
         <v>1</v>
       </c>
       <c r="C609" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="610">
@@ -7146,7 +7146,7 @@
         <v>1</v>
       </c>
       <c r="C610" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="611">
@@ -7157,7 +7157,7 @@
         <v>1</v>
       </c>
       <c r="C611" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="612">
@@ -7168,7 +7168,7 @@
         <v>1</v>
       </c>
       <c r="C612" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613">
@@ -7179,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="C613" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -7190,7 +7190,7 @@
         <v>1</v>
       </c>
       <c r="C614" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -7201,7 +7201,7 @@
         <v>1</v>
       </c>
       <c r="C615" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -7212,7 +7212,7 @@
         <v>1</v>
       </c>
       <c r="C616" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617">
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="C617" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="618">
@@ -7234,7 +7234,7 @@
         <v>1</v>
       </c>
       <c r="C618" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="619">
@@ -7245,7 +7245,7 @@
         <v>1</v>
       </c>
       <c r="C619" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620">
@@ -7256,7 +7256,7 @@
         <v>1</v>
       </c>
       <c r="C620" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="621">
@@ -7267,7 +7267,7 @@
         <v>1</v>
       </c>
       <c r="C621" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="622">
@@ -7278,7 +7278,7 @@
         <v>1</v>
       </c>
       <c r="C622" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623">
@@ -7289,7 +7289,7 @@
         <v>1</v>
       </c>
       <c r="C623" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="624">
@@ -7300,7 +7300,7 @@
         <v>1</v>
       </c>
       <c r="C624" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="625">
@@ -7311,7 +7311,7 @@
         <v>1</v>
       </c>
       <c r="C625" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="626">
@@ -7322,7 +7322,7 @@
         <v>1</v>
       </c>
       <c r="C626" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="627">
@@ -7333,7 +7333,7 @@
         <v>1</v>
       </c>
       <c r="C627" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="628">
@@ -7344,7 +7344,7 @@
         <v>1</v>
       </c>
       <c r="C628" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="629">
@@ -7355,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="C629" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630">
@@ -7366,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="C630" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631">
@@ -7377,7 +7377,7 @@
         <v>1</v>
       </c>
       <c r="C631" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632">
@@ -7388,7 +7388,7 @@
         <v>1</v>
       </c>
       <c r="C632" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="633">
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="C633" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="634">
@@ -7410,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="C634" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635">
@@ -7421,7 +7421,7 @@
         <v>1</v>
       </c>
       <c r="C635" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="636">
@@ -7432,7 +7432,7 @@
         <v>1</v>
       </c>
       <c r="C636" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637">
@@ -7443,7 +7443,7 @@
         <v>1</v>
       </c>
       <c r="C637" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638">
@@ -7454,7 +7454,7 @@
         <v>1</v>
       </c>
       <c r="C638" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639">
@@ -7465,7 +7465,7 @@
         <v>1</v>
       </c>
       <c r="C639" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640">
@@ -7476,7 +7476,7 @@
         <v>1</v>
       </c>
       <c r="C640" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641">
@@ -7487,7 +7487,7 @@
         <v>1</v>
       </c>
       <c r="C641" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="642">
@@ -7498,7 +7498,7 @@
         <v>1</v>
       </c>
       <c r="C642" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="643">
@@ -7509,7 +7509,7 @@
         <v>1</v>
       </c>
       <c r="C643" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="644">
@@ -7520,7 +7520,7 @@
         <v>1</v>
       </c>
       <c r="C644" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="645">
@@ -7531,7 +7531,7 @@
         <v>1</v>
       </c>
       <c r="C645" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="646">
@@ -7542,7 +7542,7 @@
         <v>1</v>
       </c>
       <c r="C646" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="647">
@@ -7553,7 +7553,7 @@
         <v>1</v>
       </c>
       <c r="C647" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="648">
@@ -7564,7 +7564,7 @@
         <v>1</v>
       </c>
       <c r="C648" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649">
@@ -7575,7 +7575,7 @@
         <v>1</v>
       </c>
       <c r="C649" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="650">
@@ -7586,7 +7586,7 @@
         <v>1</v>
       </c>
       <c r="C650" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="C651" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="652">
@@ -7619,7 +7619,7 @@
         <v>1</v>
       </c>
       <c r="C653" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654">
@@ -7641,7 +7641,7 @@
         <v>1</v>
       </c>
       <c r="C655" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
@@ -7652,7 +7652,7 @@
         <v>1</v>
       </c>
       <c r="C656" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="657">
@@ -7663,7 +7663,7 @@
         <v>1</v>
       </c>
       <c r="C657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="C658" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659">
@@ -7685,7 +7685,7 @@
         <v>1</v>
       </c>
       <c r="C659" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
@@ -7696,7 +7696,7 @@
         <v>1</v>
       </c>
       <c r="C660" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661">
@@ -7707,7 +7707,7 @@
         <v>1</v>
       </c>
       <c r="C661" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662">
@@ -7718,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="C662" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="663">
@@ -7729,7 +7729,7 @@
         <v>1</v>
       </c>
       <c r="C663" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="664">
@@ -7740,7 +7740,7 @@
         <v>1</v>
       </c>
       <c r="C664" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="665">
@@ -7751,7 +7751,7 @@
         <v>1</v>
       </c>
       <c r="C665" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
@@ -7762,7 +7762,7 @@
         <v>1</v>
       </c>
       <c r="C666" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667">
@@ -7773,7 +7773,7 @@
         <v>1</v>
       </c>
       <c r="C667" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="668">
@@ -7784,7 +7784,7 @@
         <v>1</v>
       </c>
       <c r="C668" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="669">
@@ -7795,7 +7795,7 @@
         <v>1</v>
       </c>
       <c r="C669" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670">
@@ -7806,7 +7806,7 @@
         <v>1</v>
       </c>
       <c r="C670" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="671">
@@ -7817,7 +7817,7 @@
         <v>1</v>
       </c>
       <c r="C671" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672">
@@ -7828,7 +7828,7 @@
         <v>1</v>
       </c>
       <c r="C672" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="673">
@@ -7839,7 +7839,7 @@
         <v>1</v>
       </c>
       <c r="C673" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="674">
@@ -7850,7 +7850,7 @@
         <v>1</v>
       </c>
       <c r="C674" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="675">
@@ -7861,7 +7861,7 @@
         <v>1</v>
       </c>
       <c r="C675" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="676">
@@ -7872,7 +7872,7 @@
         <v>1</v>
       </c>
       <c r="C676" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677">
@@ -7883,7 +7883,7 @@
         <v>1</v>
       </c>
       <c r="C677" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="678">
@@ -7894,7 +7894,7 @@
         <v>1</v>
       </c>
       <c r="C678" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679">
@@ -7905,7 +7905,7 @@
         <v>1</v>
       </c>
       <c r="C679" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="680">
@@ -7916,7 +7916,7 @@
         <v>1</v>
       </c>
       <c r="C680" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681">
@@ -7938,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="C682" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="683">
@@ -7949,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="C683" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684">
@@ -7960,7 +7960,7 @@
         <v>1</v>
       </c>
       <c r="C684" t="n">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="685">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="C685" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="686">
@@ -7982,7 +7982,7 @@
         <v>1</v>
       </c>
       <c r="C686" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687">
@@ -7993,7 +7993,7 @@
         <v>1</v>
       </c>
       <c r="C687" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="688">
@@ -8004,7 +8004,7 @@
         <v>1</v>
       </c>
       <c r="C688" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689">
@@ -8015,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="C689" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="690">
@@ -8026,7 +8026,7 @@
         <v>1</v>
       </c>
       <c r="C690" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="691">
@@ -8037,7 +8037,7 @@
         <v>1</v>
       </c>
       <c r="C691" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692">
@@ -8048,7 +8048,7 @@
         <v>1</v>
       </c>
       <c r="C692" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="693">
@@ -8059,7 +8059,7 @@
         <v>1</v>
       </c>
       <c r="C693" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="694">
@@ -8070,7 +8070,7 @@
         <v>1</v>
       </c>
       <c r="C694" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695">
@@ -8081,7 +8081,7 @@
         <v>1</v>
       </c>
       <c r="C695" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696">
@@ -8092,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="C696" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697">
@@ -8125,7 +8125,7 @@
         <v>1</v>
       </c>
       <c r="C699" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="700">
@@ -8136,7 +8136,7 @@
         <v>1</v>
       </c>
       <c r="C700" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="701">
@@ -8158,7 +8158,7 @@
         <v>1</v>
       </c>
       <c r="C702" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703">
@@ -8169,7 +8169,7 @@
         <v>1</v>
       </c>
       <c r="C703" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704">
@@ -8180,7 +8180,7 @@
         <v>1</v>
       </c>
       <c r="C704" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="705">
@@ -8191,7 +8191,7 @@
         <v>1</v>
       </c>
       <c r="C705" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
@@ -8202,7 +8202,7 @@
         <v>1</v>
       </c>
       <c r="C706" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="707">
@@ -8213,7 +8213,7 @@
         <v>1</v>
       </c>
       <c r="C707" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="708">
@@ -8224,7 +8224,7 @@
         <v>1</v>
       </c>
       <c r="C708" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="709">
@@ -8235,7 +8235,7 @@
         <v>1</v>
       </c>
       <c r="C709" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710">
@@ -8246,7 +8246,7 @@
         <v>1</v>
       </c>
       <c r="C710" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711">
@@ -8257,7 +8257,7 @@
         <v>1</v>
       </c>
       <c r="C711" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712">
@@ -8268,7 +8268,7 @@
         <v>1</v>
       </c>
       <c r="C712" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713">
@@ -8279,7 +8279,7 @@
         <v>1</v>
       </c>
       <c r="C713" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="714">
@@ -8290,7 +8290,7 @@
         <v>1</v>
       </c>
       <c r="C714" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="715">
@@ -8301,7 +8301,7 @@
         <v>1</v>
       </c>
       <c r="C715" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="716">
@@ -8312,7 +8312,7 @@
         <v>1</v>
       </c>
       <c r="C716" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717">
@@ -8323,7 +8323,7 @@
         <v>1</v>
       </c>
       <c r="C717" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718">
@@ -8334,7 +8334,7 @@
         <v>1</v>
       </c>
       <c r="C718" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="C719" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720">
@@ -8356,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="C720" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721">
@@ -8367,7 +8367,7 @@
         <v>1</v>
       </c>
       <c r="C721" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="722">
@@ -8378,7 +8378,7 @@
         <v>1</v>
       </c>
       <c r="C722" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723">
@@ -8389,7 +8389,7 @@
         <v>1</v>
       </c>
       <c r="C723" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724">
@@ -8400,7 +8400,7 @@
         <v>1</v>
       </c>
       <c r="C724" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725">
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="C725" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726">
@@ -8422,7 +8422,7 @@
         <v>1</v>
       </c>
       <c r="C726" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="727">
@@ -8444,7 +8444,7 @@
         <v>1</v>
       </c>
       <c r="C728" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="729">
@@ -8455,7 +8455,7 @@
         <v>1</v>
       </c>
       <c r="C729" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730">
@@ -8466,7 +8466,7 @@
         <v>1</v>
       </c>
       <c r="C730" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731">
@@ -8477,7 +8477,7 @@
         <v>1</v>
       </c>
       <c r="C731" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732">
@@ -8488,7 +8488,7 @@
         <v>1</v>
       </c>
       <c r="C732" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="733">
@@ -8499,7 +8499,7 @@
         <v>1</v>
       </c>
       <c r="C733" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734">
@@ -8510,7 +8510,7 @@
         <v>1</v>
       </c>
       <c r="C734" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735">
@@ -8521,7 +8521,7 @@
         <v>1</v>
       </c>
       <c r="C735" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736">
@@ -8532,7 +8532,7 @@
         <v>1</v>
       </c>
       <c r="C736" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737">
@@ -8543,7 +8543,7 @@
         <v>1</v>
       </c>
       <c r="C737" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="738">
@@ -8554,7 +8554,7 @@
         <v>1</v>
       </c>
       <c r="C738" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="739">
@@ -8565,7 +8565,7 @@
         <v>1</v>
       </c>
       <c r="C739" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="740">
@@ -8576,7 +8576,7 @@
         <v>1</v>
       </c>
       <c r="C740" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741">
@@ -8587,7 +8587,7 @@
         <v>1</v>
       </c>
       <c r="C741" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="742">
@@ -8598,7 +8598,7 @@
         <v>1</v>
       </c>
       <c r="C742" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743">
@@ -8609,7 +8609,7 @@
         <v>1</v>
       </c>
       <c r="C743" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744">
@@ -8631,7 +8631,7 @@
         <v>1</v>
       </c>
       <c r="C745" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="746">
@@ -8642,7 +8642,7 @@
         <v>1</v>
       </c>
       <c r="C746" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="747">
@@ -8653,7 +8653,7 @@
         <v>1</v>
       </c>
       <c r="C747" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748">
@@ -8664,7 +8664,7 @@
         <v>1</v>
       </c>
       <c r="C748" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749">
@@ -8675,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="C749" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="750">
@@ -8686,7 +8686,7 @@
         <v>1</v>
       </c>
       <c r="C750" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="751">
@@ -8697,7 +8697,7 @@
         <v>1</v>
       </c>
       <c r="C751" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="752">
@@ -8708,7 +8708,7 @@
         <v>1</v>
       </c>
       <c r="C752" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="C753" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="754">
@@ -8730,7 +8730,7 @@
         <v>1</v>
       </c>
       <c r="C754" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755">
@@ -8741,7 +8741,7 @@
         <v>1</v>
       </c>
       <c r="C755" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756">
@@ -8752,7 +8752,7 @@
         <v>1</v>
       </c>
       <c r="C756" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757">
@@ -8763,7 +8763,7 @@
         <v>1</v>
       </c>
       <c r="C757" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="758">
@@ -8774,7 +8774,7 @@
         <v>1</v>
       </c>
       <c r="C758" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="759">
@@ -8785,7 +8785,7 @@
         <v>1</v>
       </c>
       <c r="C759" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="760">
@@ -8796,7 +8796,7 @@
         <v>1</v>
       </c>
       <c r="C760" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="761">
@@ -8807,7 +8807,7 @@
         <v>1</v>
       </c>
       <c r="C761" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762">
@@ -8818,7 +8818,7 @@
         <v>1</v>
       </c>
       <c r="C762" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="763">
@@ -8829,7 +8829,7 @@
         <v>1</v>
       </c>
       <c r="C763" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="764">
@@ -8840,7 +8840,7 @@
         <v>1</v>
       </c>
       <c r="C764" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="765">
@@ -8851,7 +8851,7 @@
         <v>1</v>
       </c>
       <c r="C765" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="766">
@@ -8862,7 +8862,7 @@
         <v>1</v>
       </c>
       <c r="C766" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767">
@@ -8873,7 +8873,7 @@
         <v>1</v>
       </c>
       <c r="C767" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="768">
@@ -8884,7 +8884,7 @@
         <v>1</v>
       </c>
       <c r="C768" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="769">
@@ -8895,7 +8895,7 @@
         <v>1</v>
       </c>
       <c r="C769" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="770">
@@ -8906,7 +8906,7 @@
         <v>1</v>
       </c>
       <c r="C770" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="771">
@@ -8917,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="C771" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772">
@@ -8939,7 +8939,7 @@
         <v>1</v>
       </c>
       <c r="C773" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="774">
@@ -8950,7 +8950,7 @@
         <v>1</v>
       </c>
       <c r="C774" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="775">
@@ -8972,7 +8972,7 @@
         <v>1</v>
       </c>
       <c r="C776" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="777">
@@ -8983,7 +8983,7 @@
         <v>1</v>
       </c>
       <c r="C777" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="778">
@@ -8994,7 +8994,7 @@
         <v>1</v>
       </c>
       <c r="C778" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="779">
@@ -9005,7 +9005,7 @@
         <v>1</v>
       </c>
       <c r="C779" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="780">
@@ -9016,7 +9016,7 @@
         <v>1</v>
       </c>
       <c r="C780" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="781">
@@ -9027,7 +9027,7 @@
         <v>1</v>
       </c>
       <c r="C781" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="782">
@@ -9038,7 +9038,7 @@
         <v>1</v>
       </c>
       <c r="C782" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="783">
@@ -9049,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="C783" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="784">
@@ -9060,7 +9060,7 @@
         <v>1</v>
       </c>
       <c r="C784" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="785">
@@ -9071,7 +9071,7 @@
         <v>1</v>
       </c>
       <c r="C785" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="786">
@@ -9082,7 +9082,7 @@
         <v>1</v>
       </c>
       <c r="C786" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="787">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="C787" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="788">
@@ -9104,7 +9104,7 @@
         <v>1</v>
       </c>
       <c r="C788" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="789">
@@ -9115,7 +9115,7 @@
         <v>1</v>
       </c>
       <c r="C789" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="790">
@@ -9126,7 +9126,7 @@
         <v>1</v>
       </c>
       <c r="C790" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="791">
@@ -9137,7 +9137,7 @@
         <v>1</v>
       </c>
       <c r="C791" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="792">
@@ -9148,7 +9148,7 @@
         <v>1</v>
       </c>
       <c r="C792" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793">
@@ -9159,7 +9159,7 @@
         <v>1</v>
       </c>
       <c r="C793" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
